--- a/src/main/java/Documentation/Amazon_Website_Test_Cases.xlsx
+++ b/src/main/java/Documentation/Amazon_Website_Test_Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarvesh\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Intellj Workspace\amazon.com_automation\src\main\java\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9254092-30AD-4841-BBC7-1346AC106574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E28B90B-CF40-46E5-8D66-12DA0B3FAEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -97,53 +97,56 @@
     <t>Use the sorting option.</t>
   </si>
   <si>
+    <t>1. Go to the cart page.
+2. Click on the 'Delete' link for the product in the cart.
+3. Verify that the product is removed from the cart.</t>
+  </si>
+  <si>
+    <t>1. Search for 'Laptops'.
+2. Apply filters such as Brand ('HP'), Price Range ('$500 to $1000').
+3. Verify that the displayed products match the applied filters.</t>
+  </si>
+  <si>
+    <t>1. Select the sorting option 'Price: Low to High'.
+2. Verify that products are sorted by price in ascending order.</t>
+  </si>
+  <si>
+    <t>Relevant search results should be displayed based on the keyword.</t>
+  </si>
+  <si>
+    <t>Appropriate error message should be shown.</t>
+  </si>
+  <si>
+    <t>The cart count should increase by 1.</t>
+  </si>
+  <si>
+    <t>The cart should show as empty.</t>
+  </si>
+  <si>
+    <t>Only products that meet the filter criteria should be shown.</t>
+  </si>
+  <si>
+    <t>The products should be listed from the lowest to the highest price.</t>
+  </si>
+  <si>
+    <t>1. Enter an invalid keyword (e.g., 'bgutrjkekerer343253').
+2. Click on the search button.
+3. Verify that a 'No results found' message is displayed.</t>
+  </si>
+  <si>
     <t>1. Go to Amazon.com.
-2. Enter a valid keyword (e.g., 'Samsung Galaxy') in the search bar.
+2. Enter a valid keyword (e.g., 'i phone16 pro max') in the search bar.
 3. Click on the search button.
 4. Verify that the search results page displays relevant items.</t>
   </si>
   <si>
-    <t>1. Enter an invalid keyword (e.g., 'abcxyz123').
-2. Click on the search button.
-3. Verify that a 'No results found' message is displayed.</t>
-  </si>
-  <si>
-    <t>1. Search for a product (e.g., 'Echo Dot').
+    <t>1. Search for a product (e.g., 'i phone16 pro max'').
 2. Click on the product link to go to the product detail page.
 3. Click on the 'Add to Cart' button.
 4. Verify that the product is added to the cart by checking the cart count.</t>
   </si>
   <si>
-    <t>1. Go to the cart page.
-2. Click on the 'Delete' link for the product in the cart.
-3. Verify that the product is removed from the cart.</t>
-  </si>
-  <si>
-    <t>1. Search for 'Laptops'.
-2. Apply filters such as Brand ('HP'), Price Range ('$500 to $1000').
-3. Verify that the displayed products match the applied filters.</t>
-  </si>
-  <si>
-    <t>1. Select the sorting option 'Price: Low to High'.
-2. Verify that products are sorted by price in ascending order.</t>
-  </si>
-  <si>
-    <t>Relevant search results should be displayed based on the keyword.</t>
-  </si>
-  <si>
-    <t>Appropriate error message should be shown.</t>
-  </si>
-  <si>
-    <t>The cart count should increase by 1.</t>
-  </si>
-  <si>
-    <t>The cart should show as empty.</t>
-  </si>
-  <si>
-    <t>Only products that meet the filter criteria should be shown.</t>
-  </si>
-  <si>
-    <t>The products should be listed from the lowest to the highest price.</t>
+    <t>Automation Done</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,6 +282,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +608,7 @@
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -624,7 +631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -638,14 +645,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -659,14 +668,17 @@
         <v>20</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -680,14 +692,14 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
@@ -701,14 +713,14 @@
         <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -722,14 +734,14 @@
         <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -743,14 +755,14 @@
         <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>

--- a/src/main/java/Documentation/Amazon_Website_Test_Cases.xlsx
+++ b/src/main/java/Documentation/Amazon_Website_Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Intellj Workspace\amazon.com_automation\src\main\java\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E28B90B-CF40-46E5-8D66-12DA0B3FAEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9582623C-71E9-4F4C-9A69-E868E2E9E6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -140,13 +140,13 @@
 4. Verify that the search results page displays relevant items.</t>
   </si>
   <si>
-    <t>1. Search for a product (e.g., 'i phone16 pro max'').
+    <t>Automation Done</t>
+  </si>
+  <si>
+    <t>1. Search for a product (e.g., 'i phone15 pro max'').
 2. Click on the product link to go to the product detail page.
 3. Click on the 'Add to Cart' button.
 4. Verify that the product is added to the cart by checking the cart count.</t>
-  </si>
-  <si>
-    <t>Automation Done</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +651,7 @@
         <v>28</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="14"/>
     </row>
@@ -692,12 +692,14 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
